--- a/public/app-assets/ImportSamples/11-ReceiptsImport.xlsx
+++ b/public/app-assets/ImportSamples/11-ReceiptsImport.xlsx
@@ -31,7 +31,7 @@
     <t>down_payment_total *</t>
   </si>
   <si>
-    <t>validity *</t>
+    <t>sales_plan_approval_date *</t>
   </si>
   <si>
     <t>mode_of_payment *</t>
@@ -70,7 +70,7 @@
     <t>rec-001</t>
   </si>
   <si>
-    <t>1F-04</t>
+    <t>1F-01</t>
   </si>
   <si>
     <t>123456789012364</t>
@@ -91,7 +91,7 @@
     <t>rec-002</t>
   </si>
   <si>
-    <t>1F-07</t>
+    <t>2F-08</t>
   </si>
   <si>
     <t>1234567890126</t>
@@ -143,8 +143,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -203,14 +203,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Arial"/>
@@ -234,22 +226,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -258,6 +236,21 @@
     <font>
       <b/>
       <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -273,23 +266,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,9 +289,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,14 +312,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -374,7 +374,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,37 +518,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,25 +530,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,97 +542,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,15 +573,6 @@
       </top>
       <bottom style="medium">
         <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -625,17 +616,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,6 +651,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -677,148 +677,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1141,8 +1141,8 @@
   </sheetPr>
   <dimension ref="A1:Q1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6333333333333" defaultRowHeight="15.75" customHeight="1"/>
@@ -1151,7 +1151,7 @@
     <col min="3" max="3" width="22.25" customWidth="1"/>
     <col min="4" max="4" width="14.875" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
-    <col min="6" max="6" width="13.25" customWidth="1"/>
+    <col min="6" max="6" width="32.5" customWidth="1"/>
     <col min="7" max="7" width="24" customWidth="1"/>
     <col min="8" max="8" width="14.75" customWidth="1"/>
     <col min="9" max="9" width="9.75" customWidth="1"/>
@@ -1235,7 +1235,7 @@
         <v>3399500</v>
       </c>
       <c r="F2" s="12">
-        <v>44862</v>
+        <v>44664</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>20</v>
@@ -1282,7 +1282,7 @@
         <v>3399500</v>
       </c>
       <c r="F3" s="12">
-        <v>44863</v>
+        <v>44666</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>27</v>
@@ -1333,7 +1333,7 @@
         <v>3399500</v>
       </c>
       <c r="F4" s="12">
-        <v>44863</v>
+        <v>44666</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>27</v>
@@ -1384,7 +1384,7 @@
         <v>3399500</v>
       </c>
       <c r="F5" s="12">
-        <v>44863</v>
+        <v>44666</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>34</v>
@@ -1433,7 +1433,7 @@
         <v>3399500</v>
       </c>
       <c r="F6" s="12">
-        <v>44863</v>
+        <v>44666</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>37</v>

--- a/public/app-assets/ImportSamples/11-ReceiptsImport.xlsx
+++ b/public/app-assets/ImportSamples/11-ReceiptsImport.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="41">
   <si>
     <t>doc_no *</t>
   </si>
@@ -103,6 +103,9 @@
     <t>punjab-bank</t>
   </si>
   <si>
+    <t>99909010001004</t>
+  </si>
+  <si>
     <t>receipts-1668427183-calendar-illustration.png</t>
   </si>
   <si>
@@ -142,8 +145,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="27">
@@ -212,25 +215,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -249,8 +236,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -265,11 +275,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -296,6 +313,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -304,8 +328,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,29 +344,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -374,7 +377,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,7 +389,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,7 +407,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,7 +431,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,13 +443,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,19 +467,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,43 +503,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,37 +539,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,6 +604,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -612,15 +624,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -677,139 +680,139 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -818,7 +821,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -875,6 +878,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1141,8 +1147,8 @@
   </sheetPr>
   <dimension ref="A1:Q1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6333333333333" defaultRowHeight="15.75" customHeight="1"/>
@@ -1299,8 +1305,8 @@
       <c r="K3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="8">
-        <v>10209010001001</v>
+      <c r="L3" s="20" t="s">
+        <v>29</v>
       </c>
       <c r="M3" s="8" t="s">
         <v>22</v>
@@ -1313,17 +1319,17 @@
         <v>23</v>
       </c>
       <c r="Q3" s="17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:17">
       <c r="A4" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="21" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="5">
@@ -1339,7 +1345,7 @@
         <v>27</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I4" s="8">
         <v>25</v>
@@ -1350,8 +1356,8 @@
       <c r="K4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="8">
-        <v>10209010001004</v>
+      <c r="L4" s="20" t="s">
+        <v>29</v>
       </c>
       <c r="M4" s="8" t="s">
         <v>22</v>
@@ -1364,17 +1370,17 @@
         <v>23</v>
       </c>
       <c r="Q4" s="17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:17">
       <c r="A5" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="21" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="5">
@@ -1387,10 +1393,10 @@
         <v>44666</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I5" s="8">
         <v>25</v>
@@ -1399,9 +1405,11 @@
         <v>22</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
-      <c r="L5" s="8"/>
+      <c r="L5" s="20" t="s">
+        <v>29</v>
+      </c>
       <c r="M5" s="8">
         <v>12323231</v>
       </c>
@@ -1418,12 +1426,12 @@
     </row>
     <row r="6" customHeight="1" spans="1:17">
       <c r="A6" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="21" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="5">
@@ -1436,10 +1444,10 @@
         <v>44666</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I6" s="8">
         <v>25</v>
@@ -1448,15 +1456,17 @@
         <v>22</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
-      <c r="L6" s="8"/>
+      <c r="L6" s="20" t="s">
+        <v>29</v>
+      </c>
       <c r="M6" s="8" t="s">
         <v>22</v>
       </c>
       <c r="N6" s="8"/>
       <c r="O6" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P6" s="8" t="s">
         <v>23</v>

--- a/public/app-assets/ImportSamples/11-ReceiptsImport.xlsx
+++ b/public/app-assets/ImportSamples/11-ReceiptsImport.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
   <si>
     <t>doc_no *</t>
   </si>
@@ -85,6 +85,9 @@
     <t>cheque</t>
   </si>
   <si>
+    <t>99909010001004</t>
+  </si>
+  <si>
     <t>receipts-screenshot-from-2022-11-06-16-54-43.png</t>
   </si>
   <si>
@@ -108,10 +111,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -163,13 +166,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -177,7 +173,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -186,14 +190,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,10 +210,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -231,7 +228,58 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,35 +293,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -282,24 +301,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -326,7 +329,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,25 +443,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,91 +491,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,49 +503,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,11 +538,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,21 +593,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -585,6 +603,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,172 +635,148 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1082,7 +1085,7 @@
   <dimension ref="A1:O1001"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6333333333333" defaultRowHeight="15.75" customHeight="1"/>
@@ -1095,8 +1098,8 @@
     <col min="7" max="7" width="24" customWidth="1"/>
     <col min="8" max="8" width="14.75" customWidth="1"/>
     <col min="9" max="9" width="9.75" customWidth="1"/>
-    <col min="10" max="10" width="13.375" customWidth="1"/>
-    <col min="11" max="11" width="14.125" customWidth="1"/>
+    <col min="10" max="10" width="23.625" customWidth="1"/>
+    <col min="11" max="11" width="24" customWidth="1"/>
     <col min="12" max="12" width="26" customWidth="1"/>
     <col min="13" max="13" width="26.375" customWidth="1"/>
     <col min="14" max="14" width="20.375" customWidth="1"/>
@@ -1219,8 +1222,8 @@
       <c r="I3" s="2">
         <v>12343</v>
       </c>
-      <c r="J3" s="2">
-        <v>10209010001001</v>
+      <c r="J3" s="12" t="s">
+        <v>23</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>19</v>
@@ -1233,15 +1236,15 @@
         <v>20</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:15">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>17</v>
@@ -1264,8 +1267,8 @@
       <c r="I4" s="2">
         <v>12343</v>
       </c>
-      <c r="J4" s="2">
-        <v>10209010001004</v>
+      <c r="J4" s="12" t="s">
+        <v>23</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>19</v>
@@ -1278,15 +1281,15 @@
         <v>20</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:15">
       <c r="A5" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>17</v>
@@ -1301,7 +1304,7 @@
         <v>44666</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H5" s="2">
         <v>25</v>
@@ -1309,8 +1312,8 @@
       <c r="I5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="2">
-        <v>10209010001004</v>
+      <c r="J5" s="12" t="s">
+        <v>23</v>
       </c>
       <c r="K5" s="2">
         <v>12323231</v>
@@ -1325,15 +1328,15 @@
         <v>20</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:15">
       <c r="A6" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>17</v>
@@ -1348,7 +1351,7 @@
         <v>44666</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H6" s="2">
         <v>25</v>
@@ -1356,8 +1359,8 @@
       <c r="I6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="2">
-        <v>10209010001004</v>
+      <c r="J6" s="12" t="s">
+        <v>23</v>
       </c>
       <c r="K6" s="2">
         <v>325345345</v>
@@ -1372,7 +1375,7 @@
         <v>20</v>
       </c>
       <c r="O6" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:15">

--- a/public/app-assets/ImportSamples/11-ReceiptsImport.xlsx
+++ b/public/app-assets/ImportSamples/11-ReceiptsImport.xlsx
@@ -85,7 +85,7 @@
     <t>cheque</t>
   </si>
   <si>
-    <t>99909010001004</t>
+    <t>10209010001001</t>
   </si>
   <si>
     <t>receipts-screenshot-from-2022-11-06-16-54-43.png</t>
@@ -112,9 +112,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -172,24 +172,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,29 +195,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -234,44 +203,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,15 +221,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,6 +231,80 @@
       <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -329,7 +329,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,49 +431,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,61 +491,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,49 +503,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,6 +562,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -577,17 +601,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,165 +635,145 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1084,8 +1084,8 @@
   </sheetPr>
   <dimension ref="A1:O1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6333333333333" defaultRowHeight="15.75" customHeight="1"/>
